--- a/compare_sheet.xlsx
+++ b/compare_sheet.xlsx
@@ -200,11 +200,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97156773"/>
-        <c:axId val="1335877718"/>
+        <c:axId val="416793134"/>
+        <c:axId val="1042605448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97156773"/>
+        <c:axId val="416793134"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -219,10 +219,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335877718"/>
+        <c:crossAx val="1042605448"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335877718"/>
+        <c:axId val="1042605448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +253,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97156773"/>
+        <c:crossAx val="416793134"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -266,14 +266,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
